--- a/biology/Histoire de la zoologie et de la botanique/Jean-Christophe_Balouet/Jean-Christophe_Balouet.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jean-Christophe_Balouet/Jean-Christophe_Balouet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Christophe Balouet (né le 12 novembre 1956 à Caudéran (Gironde) et mort le 30 mars 2021 à Orrouy[1]) était un paléontologue français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Christophe Balouet (né le 12 novembre 1956 à Caudéran (Gironde) et mort le 30 mars 2021 à Orrouy) était un paléontologue français.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a collaboré avec Storrs Olson, de la Smithsonian Institution, à la recherche paléontologique sur les espèces fossiles d'oiseaux de Nouvelle-Calédonie dans le sud-ouest du Pacifique[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a collaboré avec Storrs Olson, de la Smithsonian Institution, à la recherche paléontologique sur les espèces fossiles d'oiseaux de Nouvelle-Calédonie dans le sud-ouest du Pacifique,.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1989 – (en) Fossil Birds from Late Quaternary Deposits in New Caledonia (avec Storrs Olson). Smithsonian Contributions to Zoology 469. Smithsonian Institution Press, Washington D.C.
 1990 – (en) Extinct species of the world: lessons for our future (avec Eric Alibert). Letts: London.  (ISBN 978-1-85238-100-4)</t>
